--- a/data/trans_orig/P14C29-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C29-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49EC9125-D39E-4B89-9399-488B78102C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3972AC-B8BA-40AF-9BC5-BA159C7AA0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBF84A0B-9B27-4345-B997-ADC8EFAEF52F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8098B9EF-5E71-42D0-99AA-C9CD7B7FA729}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="128">
   <si>
     <t>Población según el tiempo de diagnóstico del osteoporosis en 2015 (Tasa respuesta: 1,67%)</t>
   </si>
@@ -107,19 +107,19 @@
     <t>68,81%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -128,19 +128,19 @@
     <t>31,19%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -155,13 +155,13 @@
     <t>82,86%</t>
   </si>
   <si>
-    <t>21,7%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>78,3%</t>
+    <t>70,8%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -176,46 +176,46 @@
     <t>86,79%</t>
   </si>
   <si>
-    <t>66,19%</t>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
     <t>56,93%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>28,48%</t>
+    <t>30,17%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>27,3%</t>
+    <t>28,08%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>21,72%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>16,59%</t>
+    <t>16,31%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -233,7 +233,7 @@
     <t>88,04%</t>
   </si>
   <si>
-    <t>49,28%</t>
+    <t>49,86%</t>
   </si>
   <si>
     <t>16,68%</t>
@@ -245,7 +245,7 @@
     <t>11,96%</t>
   </si>
   <si>
-    <t>50,72%</t>
+    <t>50,14%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -263,19 +263,19 @@
     <t>59,69%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>65,7%</t>
   </si>
   <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -284,31 +284,31 @@
     <t>31,7%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>25,95%</t>
+    <t>25,78%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>22,1%</t>
+    <t>23,1%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -317,49 +317,46 @@
     <t>68,75%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>70,27%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>42,02%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>45,5%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>37,8%</t>
+    <t>37,11%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -368,19 +365,19 @@
     <t>75,73%</t>
   </si>
   <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -389,37 +386,37 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -834,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB52722-25A9-4B6E-B5F3-F80464F99B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECCD3B5-D97C-4E39-8228-682AE0FDF441}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2445,10 +2442,10 @@
         <v>98</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -2457,13 +2454,13 @@
         <v>3226</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2490,13 @@
         <v>2409</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2508,13 +2505,13 @@
         <v>2409</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>14</v>
@@ -2597,13 +2594,13 @@
         <v>86969</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -2612,13 +2609,13 @@
         <v>97939</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -2648,13 +2645,13 @@
         <v>22047</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
@@ -2663,13 +2660,13 @@
         <v>22047</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -2699,13 +2696,13 @@
         <v>5825</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -2714,13 +2711,13 @@
         <v>5825</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2773,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C29-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C29-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3972AC-B8BA-40AF-9BC5-BA159C7AA0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3AA2AC8-BE43-49BC-807F-4DEC00E92E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8098B9EF-5E71-42D0-99AA-C9CD7B7FA729}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21BA72F8-0874-457A-B325-14F664D81E38}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="128">
   <si>
-    <t>Población según el tiempo de diagnóstico del osteoporosis en 2015 (Tasa respuesta: 1,67%)</t>
+    <t>Población según el tiempo de diagnóstico del osteoporosis en 2016 (Tasa respuesta: 1,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -107,19 +107,19 @@
     <t>68,81%</t>
   </si>
   <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -128,19 +128,19 @@
     <t>31,19%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -176,19 +176,16 @@
     <t>86,79%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>68,78%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -197,25 +194,25 @@
     <t>9,29%</t>
   </si>
   <si>
-    <t>30,17%</t>
+    <t>28,14%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>28,08%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>17,84%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>16,31%</t>
+    <t>16,57%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -227,25 +224,25 @@
     <t>83,32%</t>
   </si>
   <si>
-    <t>34,46%</t>
+    <t>32,77%</t>
   </si>
   <si>
     <t>88,04%</t>
   </si>
   <si>
-    <t>49,86%</t>
+    <t>50,13%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>65,54%</t>
+    <t>67,23%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>50,14%</t>
+    <t>49,87%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -263,19 +260,19 @@
     <t>59,69%</t>
   </si>
   <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>65,7%</t>
   </si>
   <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -284,31 +281,31 @@
     <t>31,7%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>25,78%</t>
+    <t>27,0%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>23,1%</t>
+    <t>22,32%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -317,46 +314,49 @@
     <t>68,75%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>70,27%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>42,02%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>45,5%</t>
+    <t>39,0%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>37,11%</t>
+    <t>37,34%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -365,19 +365,19 @@
     <t>75,73%</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -386,37 +386,37 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECCD3B5-D97C-4E39-8228-682AE0FDF441}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FB6A8F-0709-4E9F-A878-31B8FC455A91}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -1587,13 +1587,13 @@
         <v>22630</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1623,13 +1623,13 @@
         <v>2227</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1638,13 +1638,13 @@
         <v>2227</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1674,13 +1674,13 @@
         <v>940</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1689,13 +1689,13 @@
         <v>940</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1831,7 +1831,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,7 +1880,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1976,10 +1976,10 @@
         <v>5175</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>12</v>
@@ -1991,10 +1991,10 @@
         <v>7623</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>12</v>
@@ -2018,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2027,13 +2027,13 @@
         <v>1036</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2042,13 +2042,13 @@
         <v>1036</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2069,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,7 +2155,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2170,7 +2170,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -2182,13 +2182,13 @@
         <v>17174</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -2197,13 +2197,13 @@
         <v>22207</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2224,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2233,13 +2233,13 @@
         <v>9120</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2248,13 +2248,13 @@
         <v>9120</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2275,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2284,13 +2284,13 @@
         <v>2476</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2299,13 +2299,13 @@
         <v>2476</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2361,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2388,13 +2388,13 @@
         <v>12397</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -2403,13 +2403,13 @@
         <v>13317</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,10 +2439,10 @@
         <v>3226</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>99</v>
